--- a/static/RMPP_PCOM7E_Skill_Matrix.xlsx
+++ b/static/RMPP_PCOM7E_Skill_Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UOE\SEPM\SEPM_EP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UOE\RRRRR\ePorfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F60E6-C77D-4094-BEF7-0F1D340654FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1668B14-46A4-40FF-8A8E-087D758EE367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0AC6F20-2752-4433-AA8C-078D6A73E621}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t>Competency</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Adapted from BCS guidelines and Essex graduate</t>
-  </si>
-  <si>
-    <t>PoE</t>
   </si>
   <si>
     <t>I have read some guidelines</t>
@@ -268,22 +265,28 @@
     <t>SSD and OOIS course and projects.</t>
   </si>
   <si>
-    <t>SEPM - End of module assignment, Work experience - working  with many teams, third parties and  non-technical departments. Worked on design documentation.</t>
-  </si>
-  <si>
-    <t>SEPM - End of module assignment. Work experience. Working with different document types. Examples include combining diagrams and plans in the Systems Design Assignment, along with writing a manual for the implementation assignment.</t>
-  </si>
-  <si>
-    <t>participation in discussion forums, working with Docker and Flask.</t>
-  </si>
-  <si>
-    <t>SEPM-End of module assignment, discussion relating to project failure,emotional reactions, and user experience.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Work experience and taks on SEPM,SSDS and OOIS projects. </t>
   </si>
   <si>
     <t>SEPM, SSD and OOIS course and projects.</t>
+  </si>
+  <si>
+    <t>RMPP - End of module assignment, Work experience - working  with many teams, third parties and  non-technical departments. Worked on design documentation.</t>
+  </si>
+  <si>
+    <t>RMPP - End of module assignment. Work experience. Working with different document types. Examples include combining diagrams and plans in the Systems Design Assignment, along with writing a manual for the implementation assignment.</t>
+  </si>
+  <si>
+    <t>participation in discussion forums</t>
+  </si>
+  <si>
+    <t>RMPP-End of module assignment, discussion relating to research methods.</t>
+  </si>
+  <si>
+    <t>RMPP-End of module assignment, discussion relating to research methods..</t>
+  </si>
+  <si>
+    <t>RMPP-End of module assignment.</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E859C549-79C4-4FD7-AE1D-68AD30B27DE0}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +956,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
@@ -972,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
@@ -993,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>16</v>
@@ -1012,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>19</v>
@@ -1053,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1068,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1081,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1111,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1141,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1169,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1182,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1195,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1221,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,7 +1311,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1345,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1358,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1371,7 +1374,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1401,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1414,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
